--- a/biology/Botanique/Albert_Charles_Seward/Albert_Charles_Seward.xlsx
+++ b/biology/Botanique/Albert_Charles_Seward/Albert_Charles_Seward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Charles Seward (1863, Lancaster-1941) est un botaniste, paléontologue et géologue britannique.
 Seward est conférencier à l'Université de Cambridge en 1890 puis détenteur de la chaire de botanique de l'université de Cambridge dans la même université de 1906 à 1936. Il est élu membre de la Royal Society en 1898. Il reçoit la médaille Murchison en 1908, la médaille royale en 1925, la médaille Wollaston en 1930 et la médaille Darwin en 1934.
@@ -512,9 +524,11 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Charles Seward a décrit près de 300 taxons de plantes, dont plus de 200 espèces. Les noms scientifiques de ces taxons (éteints pour la plupart) sont immédiatement suivis du nom de leur auteur, sous l'abréviation « A.C.Seward » ou « Seward ». Cette liste (non-exhaustive) est construite en compilant les données de l'IRMNG[1], de GBIF[2],[3] et de l'IFPNI[4] pour l'essentiel :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Charles Seward a décrit près de 300 taxons de plantes, dont plus de 200 espèces. Les noms scientifiques de ces taxons (éteints pour la plupart) sont immédiatement suivis du nom de leur auteur, sous l'abréviation « A.C.Seward » ou « Seward ». Cette liste (non-exhaustive) est construite en compilant les données de l'IRMNG, de GBIF, et de l'IFPNI pour l'essentiel :
 Agathis veitchii (Henkel &amp; W.Hochst.) Seward &amp; Ford
 Araucariopsida Seward, 1906
 Dipteridaceae Seward &amp; E.Dale, 1901
